--- a/dl (1).xlsx
+++ b/dl (1).xlsx
@@ -294,7 +294,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="4">
@@ -302,7 +302,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="5">
@@ -310,7 +310,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="6">
@@ -318,7 +318,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="1">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="7">
@@ -326,7 +326,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="1">
-        <v>61.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="8">
@@ -334,7 +334,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="1">
-        <v>200.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="9">
@@ -342,7 +342,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="1">
-        <v>229.0</v>
+        <v>88.0</v>
       </c>
     </row>
     <row r="10">
@@ -350,7 +350,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="1">
-        <v>270.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="11">
@@ -358,7 +358,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="1">
-        <v>302.0</v>
+        <v>110.0</v>
       </c>
     </row>
     <row r="12">
@@ -366,7 +366,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="1">
-        <v>350.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="13">
@@ -374,7 +374,7 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="1">
-        <v>359.0</v>
+        <v>132.0</v>
       </c>
     </row>
     <row r="14">
@@ -382,7 +382,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="1">
-        <v>370.0</v>
+        <v>143.0</v>
       </c>
     </row>
     <row r="15">
@@ -390,7 +390,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="1">
-        <v>390.0</v>
+        <v>154.0</v>
       </c>
     </row>
     <row r="16">
@@ -398,7 +398,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="1">
-        <v>450.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="17">
@@ -406,7 +406,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="1">
-        <v>469.0</v>
+        <v>176.0</v>
       </c>
     </row>
     <row r="18">
@@ -414,7 +414,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="1">
-        <v>500.0</v>
+        <v>187.0</v>
       </c>
     </row>
     <row r="19">
@@ -422,7 +422,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="1">
-        <v>532.0</v>
+        <v>198.0</v>
       </c>
     </row>
     <row r="20">
@@ -430,7 +430,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="1">
-        <v>599.0</v>
+        <v>209.0</v>
       </c>
     </row>
     <row r="21">
@@ -438,7 +438,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="1">
-        <v>670.0</v>
+        <v>220.0</v>
       </c>
     </row>
   </sheetData>
